--- a/doc/RCT_GPIO.xlsx
+++ b/doc/RCT_GPIO.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\SharpBladeAutomaticAntennaTracker\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SharpBladeAutomaticAntennaTracker\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7832F6-642C-4DEF-BB2E-A0F0DE00B1AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC4F8C6-1E41-4136-ACB4-BC9CBAE9D28C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{2087ADA6-C36D-4909-8A99-E395B329A086}"/>
+    <workbookView xWindow="9570" yWindow="-13620" windowWidth="21840" windowHeight="13140" xr2:uid="{2087ADA6-C36D-4909-8A99-E395B329A086}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="170">
   <si>
     <t>Pin</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -582,6 +581,134 @@
   </si>
   <si>
     <t>TIM4_CH4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OLED CS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OLED DC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OLED RST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yaw PWM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pitch PWM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWDIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWCLK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数传串口 RX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数传串口 TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPS RX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPS TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试串口 RX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试串口 TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAM CS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAM SCK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAM SO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAM SI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAM WP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAM HOLD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码器 A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码器 B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电池电源 ADC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供电 ADC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电位器 ADC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入设备(Q)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入设备(CLK)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入设备(S/L)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OLED SCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OLED SDA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -606,12 +733,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -628,8 +779,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -946,20 +1109,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06FD313A-1C50-4E8A-8883-E35206AA118A}">
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="4.375" customWidth="1"/>
-    <col min="4" max="7" width="14.25" customWidth="1"/>
-    <col min="8" max="8" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="4.3984375" customWidth="1"/>
+    <col min="4" max="7" width="14.265625" customWidth="1"/>
+    <col min="8" max="8" width="18.265625" customWidth="1"/>
+    <col min="9" max="9" width="27.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -985,141 +1149,212 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="I3" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="I9" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="I10" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="I11" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="I12" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1139,7 +1374,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1156,7 +1391,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1173,7 +1408,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1187,24 +1422,40 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" t="s">
@@ -1213,58 +1464,78 @@
       <c r="F21" t="s">
         <v>95</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="I21" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>27</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="I22" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>28</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="1" t="s">
         <v>112</v>
       </c>
       <c r="H23" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="I23" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="1" t="s">
         <v>113</v>
       </c>
       <c r="H24" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="I24" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1272,7 +1543,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1283,7 +1554,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1294,22 +1565,28 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C29" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="C29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" t="s">
@@ -1318,12 +1595,16 @@
       <c r="C30" t="s">
         <v>36</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="I30" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" t="s">
@@ -1332,31 +1613,51 @@
       <c r="C31" t="s">
         <v>36</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="I31" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C34" t="s">
@@ -1368,9 +1669,13 @@
       <c r="G34" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="I34" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" t="s">
@@ -1382,12 +1687,16 @@
       <c r="F35" t="s">
         <v>99</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="I35" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" t="s">
@@ -1399,12 +1708,16 @@
       <c r="F36" t="s">
         <v>100</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="I36" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" t="s">
@@ -1413,15 +1726,19 @@
       <c r="C37" t="s">
         <v>36</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="I37" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C38" t="s">
@@ -1430,12 +1747,16 @@
       <c r="H38" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="I38" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C39" t="s">
@@ -1444,12 +1765,16 @@
       <c r="H39" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="I39" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C40" t="s">
@@ -1458,12 +1783,16 @@
       <c r="H40" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41">
+      <c r="I40" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C41" t="s">
@@ -1472,12 +1801,16 @@
       <c r="H41" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42">
+      <c r="I41" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C42" t="s">
@@ -1489,9 +1822,13 @@
       <c r="H42" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43">
+      <c r="I42" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" t="s">
@@ -1500,15 +1837,19 @@
       <c r="C43" t="s">
         <v>36</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="1" t="s">
         <v>102</v>
       </c>
       <c r="H43" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44">
+      <c r="I43" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" t="s">
@@ -1517,18 +1858,22 @@
       <c r="C44" t="s">
         <v>36</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="1" t="s">
         <v>103</v>
       </c>
       <c r="H44" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="I44" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C45" t="s">
@@ -1540,12 +1885,16 @@
       <c r="H45" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46">
+      <c r="I45" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C46" t="s">
@@ -1554,9 +1903,13 @@
       <c r="F46" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47">
+      <c r="I46" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" t="s">
@@ -1565,28 +1918,48 @@
       <c r="C47" t="s">
         <v>36</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48">
+      <c r="I47" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49">
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="4"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50">
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="4"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" t="s">
@@ -1595,28 +1968,36 @@
       <c r="C50" t="s">
         <v>36</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51">
+      <c r="I50" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J50" s="4"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A51" s="2">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C51" t="s">
-        <v>36</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="C51" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G51" t="s">
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1630,7 +2011,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1644,8 +2025,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" t="s">
@@ -1654,12 +2035,16 @@
       <c r="C54" t="s">
         <v>36</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55">
+      <c r="I54" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" t="s">
@@ -1668,49 +2053,61 @@
       <c r="C55" t="s">
         <v>36</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56">
+      <c r="I55" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J55" s="4"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A56" s="2">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C56" t="s">
-        <v>36</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="C56" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G56" t="s">
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57">
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A57" s="2">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C57" t="s">
-        <v>36</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="C57" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G57" t="s">
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58">
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C58" t="s">
@@ -1719,12 +2116,16 @@
       <c r="G58" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59">
+      <c r="I58" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J58" s="4"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C59" t="s">
@@ -1733,8 +2134,12 @@
       <c r="H59" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I59" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J59" s="4"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1748,33 +2153,43 @@
         <v>135</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A61" s="2">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D61" t="s">
+      <c r="C61" s="2"/>
+      <c r="D61" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62">
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="4"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="C62" t="s">
         <v>36</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63">
+      <c r="I62" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" t="s">
@@ -1783,28 +2198,48 @@
       <c r="C63" t="s">
         <v>36</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64">
+      <c r="I63" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A64" s="3">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65">
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="4"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A65" s="3">
         <v>64</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="3" t="s">
         <v>76</v>
       </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/RCT_GPIO.xlsx
+++ b/doc/RCT_GPIO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SharpBladeAutomaticAntennaTracker\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\SharpBladeAutomaticAntennaTracker\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC4F8C6-1E41-4136-ACB4-BC9CBAE9D28C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4E00B8-BB37-43A9-BF75-06E74FA7D7B6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9570" yWindow="-13620" windowWidth="21840" windowHeight="13140" xr2:uid="{2087ADA6-C36D-4909-8A99-E395B329A086}"/>
+    <workbookView xWindow="-21720" yWindow="7080" windowWidth="21840" windowHeight="13140" xr2:uid="{2087ADA6-C36D-4909-8A99-E395B329A086}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="169">
   <si>
     <t>Pin</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -636,10 +636,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I2C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>调试串口 RX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -664,14 +660,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FRAM WP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAM HOLD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>编码器 A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -709,6 +697,14 @@
   </si>
   <si>
     <t>OLED SDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C SCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C SDA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1111,19 +1107,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06FD313A-1C50-4E8A-8883-E35206AA118A}">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="4.3984375" customWidth="1"/>
-    <col min="4" max="7" width="14.265625" customWidth="1"/>
-    <col min="8" max="8" width="18.265625" customWidth="1"/>
-    <col min="9" max="9" width="27.06640625" customWidth="1"/>
+    <col min="3" max="3" width="4.375" customWidth="1"/>
+    <col min="4" max="7" width="14.25" customWidth="1"/>
+    <col min="8" max="8" width="18.25" customWidth="1"/>
+    <col min="9" max="9" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1149,7 +1145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1165,7 +1161,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1180,7 +1176,7 @@
       </c>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1197,7 +1193,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1214,7 +1210,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1231,7 +1227,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1248,7 +1244,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1265,7 +1261,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1276,11 +1272,11 @@
         <v>80</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1291,10 +1287,10 @@
         <v>81</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1305,10 +1301,10 @@
         <v>82</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1319,10 +1315,10 @@
         <v>83</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1338,7 +1334,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1354,7 +1350,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1374,7 +1370,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1391,7 +1387,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1408,7 +1404,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1422,7 +1418,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1438,7 +1434,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1454,7 +1450,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1472,7 +1468,7 @@
       </c>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1483,11 +1479,11 @@
         <v>111</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1505,7 +1501,7 @@
       </c>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1519,11 +1515,11 @@
         <v>123</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1535,7 +1531,7 @@
       </c>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1543,7 +1539,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1554,7 +1550,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1565,7 +1561,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1585,7 +1581,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1603,7 +1599,7 @@
       </c>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1621,7 +1617,7 @@
       </c>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -1637,7 +1633,7 @@
       <c r="I32" s="3"/>
       <c r="J32" s="4"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -1653,7 +1649,7 @@
       <c r="I33" s="3"/>
       <c r="J33" s="4"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1670,11 +1666,11 @@
         <v>114</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J34" s="4"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1691,11 +1687,11 @@
         <v>115</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J35" s="4"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1712,11 +1708,11 @@
         <v>116</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J36" s="4"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1730,15 +1726,15 @@
         <v>117</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J37" s="4"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>45</v>
       </c>
       <c r="C38" t="s">
@@ -1747,16 +1743,13 @@
       <c r="H38" t="s">
         <v>126</v>
       </c>
-      <c r="I38" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="J38" s="4"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>46</v>
       </c>
       <c r="C39" t="s">
@@ -1765,12 +1758,9 @@
       <c r="H39" t="s">
         <v>127</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="J39" s="4"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1784,11 +1774,11 @@
         <v>128</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J40" s="4"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1802,11 +1792,11 @@
         <v>129</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J41" s="4"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1823,11 +1813,11 @@
         <v>130</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J42" s="4"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1844,11 +1834,11 @@
         <v>131</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J43" s="4"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1865,11 +1855,11 @@
         <v>132</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J44" s="4"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1886,11 +1876,11 @@
         <v>133</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J45" s="4"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1904,11 +1894,11 @@
         <v>105</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J46" s="4"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1926,7 +1916,7 @@
       </c>
       <c r="J47" s="4"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -1942,7 +1932,7 @@
       <c r="I48" s="3"/>
       <c r="J48" s="4"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -1958,7 +1948,7 @@
       <c r="I49" s="3"/>
       <c r="J49" s="4"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1976,7 +1966,7 @@
       </c>
       <c r="J50" s="4"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -1997,7 +1987,7 @@
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2011,7 +2001,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2025,7 +2015,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2043,7 +2033,7 @@
       </c>
       <c r="J54" s="4"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2061,7 +2051,7 @@
       </c>
       <c r="J55" s="4"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -2082,7 +2072,7 @@
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -2103,7 +2093,7 @@
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2117,11 +2107,11 @@
         <v>121</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="J58" s="4"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2135,11 +2125,11 @@
         <v>134</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="J59" s="4"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2153,7 +2143,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -2171,7 +2161,7 @@
       <c r="I61" s="2"/>
       <c r="J61" s="4"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2188,7 +2178,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2205,7 +2195,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -2221,7 +2211,7 @@
       <c r="I64" s="3"/>
       <c r="J64" s="4"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>64</v>
       </c>
